--- a/items/complete_dynamic1.xlsx
+++ b/items/complete_dynamic1.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maik/Library/Mobile Documents/com~apple~CloudDocs/Studium/xx. Python/GUI_experiment/items/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593AC034-54AA-E646-BDF6-0CF8AA8CF66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>item</t>
   </si>
@@ -40,107 +49,49 @@
     <t>a</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>brine</t>
-  </si>
-  <si>
     <t>dass den Hans der Peter mag.</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
-    <t>apfel</t>
-  </si>
-  <si>
-    <t>kirsche</t>
-  </si>
-  <si>
     <t>dass die Frau den Bäcker liebt.</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>pfirsisch</t>
-  </si>
-  <si>
-    <t>clementine</t>
-  </si>
-  <si>
     <t>dass den Bäcker die Frau liebt.</t>
   </si>
   <si>
-    <t>cola</t>
-  </si>
-  <si>
-    <t>bier</t>
-  </si>
-  <si>
     <t>dass das Auto den Fahrer ärgert.</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>wasser</t>
-  </si>
-  <si>
-    <t>wein</t>
-  </si>
-  <si>
     <t>dass den Fahrer das Auto ärgert.</t>
   </si>
   <si>
-    <t>kaffee</t>
-  </si>
-  <si>
-    <t>tee</t>
-  </si>
-  <si>
     <t>dass der Vater den Hund tritt.</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>tequila</t>
-  </si>
-  <si>
-    <t>pfeffi</t>
-  </si>
-  <si>
     <t>dass den Hund der Vater tritt.</t>
   </si>
   <si>
-    <t>lasagne</t>
-  </si>
-  <si>
-    <t>pfannkuchen</t>
+    <t>op1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -178,23 +129,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,23 +144,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -345,7 +348,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -354,7 +357,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -363,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -437,7 +440,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -445,7 +448,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -464,7 +467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -494,7 +497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -520,7 +523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -546,7 +549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -572,7 +575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -598,7 +601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -624,7 +627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -650,7 +653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -676,7 +679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -702,7 +705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,9 +718,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -732,7 +741,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -740,7 +749,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -759,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -863,7 +872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +898,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +924,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,9 +1015,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1022,7 +1037,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1041,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1112,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,209 +1307,217 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="2">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s" s="2">
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1504,7 +1527,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
